--- a/biology/Microbiologie/Azotobacter/Azotobacter.xlsx
+++ b/biology/Microbiologie/Azotobacter/Azotobacter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Azotobacter  est un genre de bactéries appartenant à la classe des Gammaproteobacteria. Les cellules sont ovoïdes et relativement larges (2 à 4 µm, jusqu'à 6 µm). Ces bactéries sont des aérobies strictes, hétérotrophes et présentent la capacité de fixer l'azote atmosphérique. En l’absence de nourriture, la cellule peut s’entourer d’une enveloppe épaisse résistant à la sécheresse : cyste ou kyste. Ceux-ci sont remplis de poly-β-hydroxybutyrates (PHB) qui sont utilisés par les bactéries en cas de stress environnementaux comme source de stockage d’énergie.
 Les Azotobacter peuvent être isolés du sol et de l’eau. Dans le sol, ces bactéries sont présentes en quantité importante au niveau de la rhizosphère, à proximité des racines des plantes.
@@ -512,7 +524,9 @@
           <t>Activité métabolique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bactéries du genre Azotobacter sont dites diazotrophes, c'est-à-dire qu’elles peuvent fixer l’azote atmosphérique à l'état libre, contrairement à celle du genre Rhizobium qui doivent être associées aux légumineuses pour pouvoir réaliser cette fixation. Elles sont chimioorganotrophes, aérobies.
 Azotobacter vinelandii possèdent plusieurs spécificités, notamment la capacité de fixer l’azote atmosphérique en présence d’oxygène. 
@@ -555,7 +569,9 @@
           <t>Intérêts pour l'Agriculture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La compréhension du mécanisme de fixation de l’azote par ces bactéries présente un intérêt pour l’agriculture car Azotobacter participe à la fertilisation du sol.
 Azotobacter armeniacus
@@ -591,7 +607,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Azotobacter sur Microbewiki
  Portail de la microbiologie                     </t>
